--- a/biology/Médecine/Mustela_(marque)/Mustela_(marque).xlsx
+++ b/biology/Médecine/Mustela_(marque)/Mustela_(marque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mustela est une marque[1] de produits de soin et d'hygiène pour bébés, femmes enceintes et jeunes mamans, créée en 1950 et détenue par les Laboratoires Expanscience.
+Mustela est une marque de produits de soin et d'hygiène pour bébés, femmes enceintes et jeunes mamans, créée en 1950 et détenue par les Laboratoires Expanscience.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque Mustela a été créée par les Laboratoires Expanscience en 1950. La marque vend par la suite, à partir de 1953 puis 1960 des produits spécifiques à l’hygiène et au soin des bébés, notamment des protections solaires. En 1979, une ligne Mustela Femme est créée[réf. nécessaire]. 
 En 1994 Mustela augmente le nombre de produits qu'elle vend en ciblant les femmes enceintes et en 2004 se lance dans la protection solaire destinée aux enfants en bas âge[réf. nécessaire]. 
-Mustela est une marque internationale distribuée dans 65 pays. Elle fait partie des principales marques d'hygiène pour bébé[2]. 
+Mustela est une marque internationale distribuée dans 65 pays. Elle fait partie des principales marques d'hygiène pour bébé. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mustela fait appel au marketing olfactif pour vendre ses produits[3]. Les crèmes Mustela ont en effet une odeur caractéristique, comme l'écrit Béatrice Boisserie : « toutes les marques rêvent aujourd'hui d'inventer leur propre "logof", un design olfactif si puissant qu'il rendrait le consommateur fidèle pour longtemps. Un peu à la manière de ces maisons qui ont réussi à capitaliser sur le sens olfactif en rendant une odeur indissociable de leur produits : la pâte à modeler Play-Doh, le lait pour bébé Mustela, la crème Nivea, l'huile Nuxe »[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mustela fait appel au marketing olfactif pour vendre ses produits. Les crèmes Mustela ont en effet une odeur caractéristique, comme l'écrit Béatrice Boisserie : « toutes les marques rêvent aujourd'hui d'inventer leur propre "logof", un design olfactif si puissant qu'il rendrait le consommateur fidèle pour longtemps. Un peu à la manière de ces maisons qui ont réussi à capitaliser sur le sens olfactif en rendant une odeur indissociable de leur produits : la pâte à modeler Play-Doh, le lait pour bébé Mustela, la crème Nivea, l'huile Nuxe ». 
 </t>
         </is>
       </c>
